--- a/figures/supplement/Supplemental Table 1.xlsx
+++ b/figures/supplement/Supplemental Table 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aditharun/Desktop/cda-paper/figures/supplement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aditharun/Documents/correlated-drug-action/figures/supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA296FAA-4E48-EE4D-B387-06C3EB4FE454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECF811C-28BB-F840-95A4-4A7633A25CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{BFE9D735-0FB8-B244-AD05-B7CE0EEC8138}"/>
+    <workbookView xWindow="9260" yWindow="2720" windowWidth="28800" windowHeight="15940" xr2:uid="{BFE9D735-0FB8-B244-AD05-B7CE0EEC8138}"/>
   </bookViews>
   <sheets>
     <sheet name="Clinical Trial Results" sheetId="1" r:id="rId1"/>
